--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2900123.881636441</v>
+        <v>2897578.695563155</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>257.0150188971139</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>9.283029612712731</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>168.7756050755994</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>143.4822953483835</v>
+        <v>52.33159926298225</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>52.10844059186277</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.6528551206851</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>90.83307232678899</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.4098565753246</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.980384243200308</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>150.5509630666493</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>123.7971820797066</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>91.87204320893667</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.0157691544086</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>42.14967908986335</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>53.11937003877873</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>161.5330709997914</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>75.55208621972916</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>117.4765410832877</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4144,13 +4144,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1838.661061815299</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="C2" t="n">
-        <v>1469.698544874887</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D2" t="n">
-        <v>1469.698544874887</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1838.661061815299</v>
+        <v>1300.338121270757</v>
       </c>
       <c r="Y2" t="n">
-        <v>1838.661061815299</v>
+        <v>1300.338121270757</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,22 +4410,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1386.090004781549</v>
+        <v>854.9003034538789</v>
       </c>
       <c r="C5" t="n">
-        <v>1386.090004781549</v>
+        <v>485.9377865134672</v>
       </c>
       <c r="D5" t="n">
-        <v>1027.824306174799</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="E5" t="n">
-        <v>1027.824306174799</v>
+        <v>127.6720879067167</v>
       </c>
       <c r="F5" t="n">
-        <v>616.8384013851912</v>
+        <v>120.7265871575132</v>
       </c>
       <c r="G5" t="n">
-        <v>198.8745932833781</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="H5" t="n">
-        <v>198.8745932833781</v>
+        <v>106.8031830961041</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2443.387305656314</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V5" t="n">
-        <v>2112.324418312743</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W5" t="n">
-        <v>1759.555763042629</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X5" t="n">
-        <v>1386.090004781549</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y5" t="n">
-        <v>1386.090004781549</v>
+        <v>854.9003034538789</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>675.4941957298054</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>527.5811021474123</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>380.6911546495019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>999.560246824487</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="C8" t="n">
-        <v>630.5977298840753</v>
+        <v>1255.905897325111</v>
       </c>
       <c r="D8" t="n">
-        <v>272.3320312773248</v>
+        <v>897.6401987183604</v>
       </c>
       <c r="E8" t="n">
-        <v>272.3320312773248</v>
+        <v>511.8519461201161</v>
       </c>
       <c r="F8" t="n">
-        <v>265.3865305281213</v>
+        <v>504.9064453709126</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
         <v>173.6359524202537</v>
@@ -4802,25 +4802,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374775</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>192.4307036906658</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>745.243961936865</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1376.961772920177</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1704.011317530186</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2562.391660134056</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2562.391660134056</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2308.699956879207</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>1977.637069535637</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="X8" t="n">
-        <v>1386.160086888609</v>
+        <v>1624.868414265522</v>
       </c>
       <c r="Y8" t="n">
-        <v>1386.160086888609</v>
+        <v>1624.868414265522</v>
       </c>
     </row>
     <row r="9">
@@ -4890,16 +4890,16 @@
         <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1646.937527316293</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>2030.071016909819</v>
+        <v>1747.448946920904</v>
       </c>
       <c r="O9" t="n">
-        <v>2189.58332957858</v>
+        <v>2296.884955673627</v>
       </c>
       <c r="P9" t="n">
-        <v>2613.551098059417</v>
+        <v>2405.574583200926</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>715.9594172515172</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>426.8072408291969</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>509.7760050368617</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>281.7864541388444</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>60.99387499531426</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797784</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>823.4946010684509</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,28 +5273,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1051.338974243769</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="20">
@@ -5732,13 +5732,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5966,25 +5966,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
     <row r="26">
@@ -6212,31 +6212,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>641.8461362382112</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,19 +6598,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6689,13 +6689,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6707,13 +6707,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1270.536647467212</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1042.547096569194</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>821.7545174256642</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2546.729326731942</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7081,13 +7081,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,7 +7193,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7391,28 +7391,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7427,7 +7427,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>35.04072454780376</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8462,16 +8462,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>149.9775162190718</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>186.3401494352138</v>
+        <v>366.568374812572</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9419,10 +9419,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9884,7 +9884,7 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10367,7 +10367,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>57.22910392193795</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>126.7126101431581</v>
       </c>
     </row>
     <row r="14">
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>44.7370056418716</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>133.6938862346286</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>28.95742156328143</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>183.5599762991738</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>124.9899273367996</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.26526345294985</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,13 +25840,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>210.9709121168618</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,10 +26020,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26032,13 +26032,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>751490.1564333544</v>
+        <v>751490.1564333542</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333544</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751490.1564333542</v>
+        <v>751490.1564333541</v>
       </c>
     </row>
     <row r="15">
@@ -26314,25 +26314,25 @@
         <v>677359.4601380335</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.460138034</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442553</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="G2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
         <v>665895.944744255</v>
@@ -26341,16 +26341,16 @@
         <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="N2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="M2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="O2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442549</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682807</v>
+        <v>5677.536566682726</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682794</v>
+        <v>5677.536566682769</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="J4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682749</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="L4" t="n">
-        <v>5677.536566682747</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="M4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="N4" t="n">
-        <v>5677.536566682754</v>
+        <v>5677.536566682737</v>
       </c>
       <c r="O4" t="n">
-        <v>5677.536566682757</v>
+        <v>5677.536566682767</v>
       </c>
       <c r="P4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-205389.9126029537</v>
+        <v>-205389.9126029538</v>
       </c>
       <c r="C6" t="n">
-        <v>384577.9666115907</v>
+        <v>384577.9666115905</v>
       </c>
       <c r="D6" t="n">
-        <v>228774.1605177962</v>
+        <v>228774.160517796</v>
       </c>
       <c r="E6" t="n">
-        <v>-211956.813027141</v>
+        <v>-211991.5509525767</v>
       </c>
       <c r="F6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282298</v>
       </c>
       <c r="G6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="H6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282298</v>
       </c>
       <c r="I6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282294</v>
       </c>
       <c r="J6" t="n">
-        <v>382672.6591610722</v>
+        <v>382637.9212356365</v>
       </c>
       <c r="K6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="L6" t="n">
-        <v>559095.8783536652</v>
+        <v>559061.1404282295</v>
       </c>
       <c r="M6" t="n">
-        <v>434887.3676456067</v>
+        <v>434852.6297201707</v>
       </c>
       <c r="N6" t="n">
-        <v>559095.8783536649</v>
+        <v>559061.1404282296</v>
       </c>
       <c r="O6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282294</v>
       </c>
       <c r="P6" t="n">
-        <v>559095.8783536651</v>
+        <v>559061.1404282295</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.465755342287904e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>124.9153511751479</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>360.4480710657563</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>6.182121090548151</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>117.5062691663784</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>8.449020896477748</v>
+        <v>99.599716981879</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>96.50703242634958</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27831,10 +27831,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.4847882031429</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>322.0838316191478</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>21.24303055281555</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -27916,7 +27916,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.851595938737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>101.5866802571787</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28275,7 +28275,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4.048002239792271e-12</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.350573081780782e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110988</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>402.2342772868842</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,10 +32546,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0011860883002</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,10 +32783,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>189.0011860883002</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>429.5828357723605</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>681.5735157229393</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,10 +33260,10 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>152.0754244981388</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>277.2922978908106</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34448,16 +34448,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>620.1193660647499</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338903</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>118.4378503807253</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
@@ -35182,16 +35182,16 @@
         <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>321.865420579637</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>387.0035248419458</v>
+        <v>567.231750219304</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.96660727472423</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312247</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191355</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>263.67989750701</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36139,10 +36139,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>57.65947400496688</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36604,7 +36604,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
         <v>696.488651224316</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>550.231803639606</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.39592053417488</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>134.6960534463662</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>477.9853321427316</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
